--- a/src/assets/files/保证金收据模板.xlsx
+++ b/src/assets/files/保证金收据模板.xlsx
@@ -16,19 +16,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>店铺名称</t>
+    <t>供应商ID</t>
+  </si>
+  <si>
+    <t>保证金提交日期</t>
+  </si>
+  <si>
+    <t>商家名称</t>
+  </si>
+  <si>
+    <t>商家手机号</t>
   </si>
   <si>
     <t>保证金金额</t>
-  </si>
-  <si>
-    <t>付款日期</t>
-  </si>
-  <si>
-    <t>付款户名</t>
-  </si>
-  <si>
-    <t>付款账号</t>
   </si>
 </sst>
 </file>
@@ -41,19 +41,13 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FF111F2C"/>
-      <name val="Segoe UI"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -508,10 +502,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -520,141 +514,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -979,30 +970,30 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="8.875" customWidth="1"/>
-    <col min="2" max="2" width="10.875" customWidth="1"/>
-    <col min="3" max="5" width="8.375" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="8.875" customWidth="1"/>
+    <col min="4" max="5" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:5">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
